--- a/DATA/stakes_df.xlsx
+++ b/DATA/stakes_df.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GOOGLEDRIVE_CODE\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livereadingac-my.sharepoint.com/personal/at830828_student_reading_ac_uk/Documents/PERSONAL_READING/WORK/WORLD BANK/CODE/STREAMLIT/UPLOADING/_CURRENTLY_DEPLOYED/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2DDAC-80FC-4689-84EA-10BCF19FBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{49D2DDAC-80FC-4689-84EA-10BCF19FBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6801DF-5614-4398-9FCE-4E05547EE49F}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -507,6 +510,12 @@
   </si>
   <si>
     <t>RuweidaN@buffalocity.gov.za</t>
+  </si>
+  <si>
+    <t>MariusLR@tshwane.gov.za</t>
+  </si>
+  <si>
+    <t>Maruis</t>
   </si>
 </sst>
 </file>
@@ -919,17 +928,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="58.05078125" customWidth="1"/>
+    <col min="3" max="3" width="27.15625" customWidth="1"/>
     <col min="4" max="4" width="12.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -949,30 +958,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>108</v>
+      <c r="D2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>109</v>
+      <c r="D3" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -986,105 +995,105 @@
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1103,72 +1112,72 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1187,16 +1196,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1215,72 +1224,72 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1299,114 +1308,111 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1439,86 +1445,86 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1537,16 +1543,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1565,93 +1571,113 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>107</v>
       </c>
       <c r="D51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D52" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+      <sortCondition ref="C1:C52"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{580C2DFD-E86C-4286-ACA4-219C620E67E4}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{F7CADEA1-0F53-494C-9846-EFA7ED5BEF37}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{32E64602-7552-4F63-AE63-5860FB122715}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{580C2DFD-E86C-4286-ACA4-219C620E67E4}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F7CADEA1-0F53-494C-9846-EFA7ED5BEF37}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{32E64602-7552-4F63-AE63-5860FB122715}"/>
+    <hyperlink ref="D27" r:id="rId4" display="mailto:MariusLR@tshwane.gov.za" xr:uid="{97DBE944-504A-4AC6-8AC4-2671A0694C5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
